--- a/src/test/resources/excel/consumer-upload.xlsx
+++ b/src/test/resources/excel/consumer-upload.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iyeong-gyo/Desktop/my-project/yglee-collecting/install/src/test/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD30DAFF-C2D5-2B47-A045-3A7E24C653C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDCA101-D4BA-C145-95C8-2683C940B619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="16800" windowHeight="20500" xr2:uid="{A8A6AF20-BB0A-4D4E-870F-A67461B342B0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{A8A6AF20-BB0A-4D4E-870F-A67461B342B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="808">
   <si>
     <t>consumerName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,6 +132,2358 @@
   <si>
     <t>geoY-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consumerNo-3</t>
+  </si>
+  <si>
+    <t>consumerNo-4</t>
+  </si>
+  <si>
+    <t>consumerNo-5</t>
+  </si>
+  <si>
+    <t>consumerNo-6</t>
+  </si>
+  <si>
+    <t>consumerNo-7</t>
+  </si>
+  <si>
+    <t>consumerNo-8</t>
+  </si>
+  <si>
+    <t>consumerNo-9</t>
+  </si>
+  <si>
+    <t>consumerNo-10</t>
+  </si>
+  <si>
+    <t>consumerNo-11</t>
+  </si>
+  <si>
+    <t>consumerNo-12</t>
+  </si>
+  <si>
+    <t>consumerNo-13</t>
+  </si>
+  <si>
+    <t>consumerNo-14</t>
+  </si>
+  <si>
+    <t>consumerNo-15</t>
+  </si>
+  <si>
+    <t>consumerNo-16</t>
+  </si>
+  <si>
+    <t>consumerNo-17</t>
+  </si>
+  <si>
+    <t>consumerNo-18</t>
+  </si>
+  <si>
+    <t>consumerNo-19</t>
+  </si>
+  <si>
+    <t>consumerNo-20</t>
+  </si>
+  <si>
+    <t>consumerNo-21</t>
+  </si>
+  <si>
+    <t>consumerNo-22</t>
+  </si>
+  <si>
+    <t>consumerNo-23</t>
+  </si>
+  <si>
+    <t>consumerNo-24</t>
+  </si>
+  <si>
+    <t>consumerNo-25</t>
+  </si>
+  <si>
+    <t>consumerNo-26</t>
+  </si>
+  <si>
+    <t>consumerNo-27</t>
+  </si>
+  <si>
+    <t>consumerNo-28</t>
+  </si>
+  <si>
+    <t>consumerNo-29</t>
+  </si>
+  <si>
+    <t>consumerNo-30</t>
+  </si>
+  <si>
+    <t>consumerNo-31</t>
+  </si>
+  <si>
+    <t>consumerNo-32</t>
+  </si>
+  <si>
+    <t>consumerNo-33</t>
+  </si>
+  <si>
+    <t>consumerNo-34</t>
+  </si>
+  <si>
+    <t>consumerNo-35</t>
+  </si>
+  <si>
+    <t>consumerNo-36</t>
+  </si>
+  <si>
+    <t>consumerNo-37</t>
+  </si>
+  <si>
+    <t>consumerNo-38</t>
+  </si>
+  <si>
+    <t>consumerNo-39</t>
+  </si>
+  <si>
+    <t>consumerNo-40</t>
+  </si>
+  <si>
+    <t>consumerNo-41</t>
+  </si>
+  <si>
+    <t>consumerNo-42</t>
+  </si>
+  <si>
+    <t>consumerNo-43</t>
+  </si>
+  <si>
+    <t>consumerNo-44</t>
+  </si>
+  <si>
+    <t>consumerNo-45</t>
+  </si>
+  <si>
+    <t>consumerNo-46</t>
+  </si>
+  <si>
+    <t>consumerNo-47</t>
+  </si>
+  <si>
+    <t>consumerNo-48</t>
+  </si>
+  <si>
+    <t>consumerNo-49</t>
+  </si>
+  <si>
+    <t>consumerNo-50</t>
+  </si>
+  <si>
+    <t>consumerNo-51</t>
+  </si>
+  <si>
+    <t>consumerNo-52</t>
+  </si>
+  <si>
+    <t>consumerNo-53</t>
+  </si>
+  <si>
+    <t>consumerNo-54</t>
+  </si>
+  <si>
+    <t>consumerNo-55</t>
+  </si>
+  <si>
+    <t>consumerNo-56</t>
+  </si>
+  <si>
+    <t>consumerNo-57</t>
+  </si>
+  <si>
+    <t>consumerNo-58</t>
+  </si>
+  <si>
+    <t>consumerNo-59</t>
+  </si>
+  <si>
+    <t>consumerNo-60</t>
+  </si>
+  <si>
+    <t>consumerNo-61</t>
+  </si>
+  <si>
+    <t>consumerNo-62</t>
+  </si>
+  <si>
+    <t>consumerNo-63</t>
+  </si>
+  <si>
+    <t>consumerNo-64</t>
+  </si>
+  <si>
+    <t>consumerNo-65</t>
+  </si>
+  <si>
+    <t>consumerNo-66</t>
+  </si>
+  <si>
+    <t>consumerNo-67</t>
+  </si>
+  <si>
+    <t>consumerNo-68</t>
+  </si>
+  <si>
+    <t>consumerNo-69</t>
+  </si>
+  <si>
+    <t>consumerNo-70</t>
+  </si>
+  <si>
+    <t>consumerNo-71</t>
+  </si>
+  <si>
+    <t>consumerNo-72</t>
+  </si>
+  <si>
+    <t>consumerNo-73</t>
+  </si>
+  <si>
+    <t>consumerNo-74</t>
+  </si>
+  <si>
+    <t>consumerNo-75</t>
+  </si>
+  <si>
+    <t>consumerNo-76</t>
+  </si>
+  <si>
+    <t>consumerNo-77</t>
+  </si>
+  <si>
+    <t>consumerNo-78</t>
+  </si>
+  <si>
+    <t>consumerNo-79</t>
+  </si>
+  <si>
+    <t>consumerNo-80</t>
+  </si>
+  <si>
+    <t>consumerNo-81</t>
+  </si>
+  <si>
+    <t>consumerNo-82</t>
+  </si>
+  <si>
+    <t>consumerNo-83</t>
+  </si>
+  <si>
+    <t>consumerNo-84</t>
+  </si>
+  <si>
+    <t>consumerNo-85</t>
+  </si>
+  <si>
+    <t>consumerNo-86</t>
+  </si>
+  <si>
+    <t>consumerNo-87</t>
+  </si>
+  <si>
+    <t>consumerNo-88</t>
+  </si>
+  <si>
+    <t>consumerNo-89</t>
+  </si>
+  <si>
+    <t>consumerNo-90</t>
+  </si>
+  <si>
+    <t>consumerNo-91</t>
+  </si>
+  <si>
+    <t>consumerNo-92</t>
+  </si>
+  <si>
+    <t>consumerNo-93</t>
+  </si>
+  <si>
+    <t>consumerNo-94</t>
+  </si>
+  <si>
+    <t>consumerNo-95</t>
+  </si>
+  <si>
+    <t>consumerNo-96</t>
+  </si>
+  <si>
+    <t>consumerNo-97</t>
+  </si>
+  <si>
+    <t>consumerNo-98</t>
+  </si>
+  <si>
+    <t>consumerNo-99</t>
+  </si>
+  <si>
+    <t>consumerNo-100</t>
+  </si>
+  <si>
+    <t>consumerName-3</t>
+  </si>
+  <si>
+    <t>consumerName-4</t>
+  </si>
+  <si>
+    <t>consumerName-5</t>
+  </si>
+  <si>
+    <t>consumerName-6</t>
+  </si>
+  <si>
+    <t>consumerName-7</t>
+  </si>
+  <si>
+    <t>consumerName-8</t>
+  </si>
+  <si>
+    <t>consumerName-9</t>
+  </si>
+  <si>
+    <t>consumerName-10</t>
+  </si>
+  <si>
+    <t>consumerName-11</t>
+  </si>
+  <si>
+    <t>consumerName-12</t>
+  </si>
+  <si>
+    <t>consumerName-13</t>
+  </si>
+  <si>
+    <t>consumerName-14</t>
+  </si>
+  <si>
+    <t>consumerName-15</t>
+  </si>
+  <si>
+    <t>consumerName-16</t>
+  </si>
+  <si>
+    <t>consumerName-17</t>
+  </si>
+  <si>
+    <t>consumerName-18</t>
+  </si>
+  <si>
+    <t>consumerName-19</t>
+  </si>
+  <si>
+    <t>consumerName-20</t>
+  </si>
+  <si>
+    <t>consumerName-21</t>
+  </si>
+  <si>
+    <t>consumerName-22</t>
+  </si>
+  <si>
+    <t>consumerName-23</t>
+  </si>
+  <si>
+    <t>consumerName-24</t>
+  </si>
+  <si>
+    <t>consumerName-25</t>
+  </si>
+  <si>
+    <t>consumerName-26</t>
+  </si>
+  <si>
+    <t>consumerName-27</t>
+  </si>
+  <si>
+    <t>consumerName-28</t>
+  </si>
+  <si>
+    <t>consumerName-29</t>
+  </si>
+  <si>
+    <t>consumerName-30</t>
+  </si>
+  <si>
+    <t>consumerName-31</t>
+  </si>
+  <si>
+    <t>consumerName-32</t>
+  </si>
+  <si>
+    <t>consumerName-33</t>
+  </si>
+  <si>
+    <t>consumerName-34</t>
+  </si>
+  <si>
+    <t>consumerName-35</t>
+  </si>
+  <si>
+    <t>consumerName-36</t>
+  </si>
+  <si>
+    <t>consumerName-37</t>
+  </si>
+  <si>
+    <t>consumerName-38</t>
+  </si>
+  <si>
+    <t>consumerName-39</t>
+  </si>
+  <si>
+    <t>consumerName-40</t>
+  </si>
+  <si>
+    <t>consumerName-41</t>
+  </si>
+  <si>
+    <t>consumerName-42</t>
+  </si>
+  <si>
+    <t>consumerName-43</t>
+  </si>
+  <si>
+    <t>consumerName-44</t>
+  </si>
+  <si>
+    <t>consumerName-45</t>
+  </si>
+  <si>
+    <t>consumerName-46</t>
+  </si>
+  <si>
+    <t>consumerName-47</t>
+  </si>
+  <si>
+    <t>consumerName-48</t>
+  </si>
+  <si>
+    <t>consumerName-49</t>
+  </si>
+  <si>
+    <t>consumerName-50</t>
+  </si>
+  <si>
+    <t>consumerName-51</t>
+  </si>
+  <si>
+    <t>consumerName-52</t>
+  </si>
+  <si>
+    <t>consumerName-53</t>
+  </si>
+  <si>
+    <t>consumerName-54</t>
+  </si>
+  <si>
+    <t>consumerName-55</t>
+  </si>
+  <si>
+    <t>consumerName-56</t>
+  </si>
+  <si>
+    <t>consumerName-57</t>
+  </si>
+  <si>
+    <t>consumerName-58</t>
+  </si>
+  <si>
+    <t>consumerName-59</t>
+  </si>
+  <si>
+    <t>consumerName-60</t>
+  </si>
+  <si>
+    <t>consumerName-61</t>
+  </si>
+  <si>
+    <t>consumerName-62</t>
+  </si>
+  <si>
+    <t>consumerName-63</t>
+  </si>
+  <si>
+    <t>consumerName-64</t>
+  </si>
+  <si>
+    <t>consumerName-65</t>
+  </si>
+  <si>
+    <t>consumerName-66</t>
+  </si>
+  <si>
+    <t>consumerName-67</t>
+  </si>
+  <si>
+    <t>consumerName-68</t>
+  </si>
+  <si>
+    <t>consumerName-69</t>
+  </si>
+  <si>
+    <t>consumerName-70</t>
+  </si>
+  <si>
+    <t>consumerName-71</t>
+  </si>
+  <si>
+    <t>consumerName-72</t>
+  </si>
+  <si>
+    <t>consumerName-73</t>
+  </si>
+  <si>
+    <t>consumerName-74</t>
+  </si>
+  <si>
+    <t>consumerName-75</t>
+  </si>
+  <si>
+    <t>consumerName-76</t>
+  </si>
+  <si>
+    <t>consumerName-77</t>
+  </si>
+  <si>
+    <t>consumerName-78</t>
+  </si>
+  <si>
+    <t>consumerName-79</t>
+  </si>
+  <si>
+    <t>consumerName-80</t>
+  </si>
+  <si>
+    <t>consumerName-81</t>
+  </si>
+  <si>
+    <t>consumerName-82</t>
+  </si>
+  <si>
+    <t>consumerName-83</t>
+  </si>
+  <si>
+    <t>consumerName-84</t>
+  </si>
+  <si>
+    <t>consumerName-85</t>
+  </si>
+  <si>
+    <t>consumerName-86</t>
+  </si>
+  <si>
+    <t>consumerName-87</t>
+  </si>
+  <si>
+    <t>consumerName-88</t>
+  </si>
+  <si>
+    <t>consumerName-89</t>
+  </si>
+  <si>
+    <t>consumerName-90</t>
+  </si>
+  <si>
+    <t>consumerName-91</t>
+  </si>
+  <si>
+    <t>consumerName-92</t>
+  </si>
+  <si>
+    <t>consumerName-93</t>
+  </si>
+  <si>
+    <t>consumerName-94</t>
+  </si>
+  <si>
+    <t>consumerName-95</t>
+  </si>
+  <si>
+    <t>consumerName-96</t>
+  </si>
+  <si>
+    <t>consumerName-97</t>
+  </si>
+  <si>
+    <t>consumerName-98</t>
+  </si>
+  <si>
+    <t>consumerName-99</t>
+  </si>
+  <si>
+    <t>consumerName-100</t>
+  </si>
+  <si>
+    <t>meterNo-3</t>
+  </si>
+  <si>
+    <t>meterNo-4</t>
+  </si>
+  <si>
+    <t>meterNo-5</t>
+  </si>
+  <si>
+    <t>meterNo-6</t>
+  </si>
+  <si>
+    <t>meterNo-7</t>
+  </si>
+  <si>
+    <t>meterNo-8</t>
+  </si>
+  <si>
+    <t>meterNo-9</t>
+  </si>
+  <si>
+    <t>meterNo-10</t>
+  </si>
+  <si>
+    <t>meterNo-11</t>
+  </si>
+  <si>
+    <t>meterNo-12</t>
+  </si>
+  <si>
+    <t>meterNo-13</t>
+  </si>
+  <si>
+    <t>meterNo-14</t>
+  </si>
+  <si>
+    <t>meterNo-15</t>
+  </si>
+  <si>
+    <t>meterNo-16</t>
+  </si>
+  <si>
+    <t>meterNo-17</t>
+  </si>
+  <si>
+    <t>meterNo-18</t>
+  </si>
+  <si>
+    <t>meterNo-19</t>
+  </si>
+  <si>
+    <t>meterNo-20</t>
+  </si>
+  <si>
+    <t>meterNo-21</t>
+  </si>
+  <si>
+    <t>meterNo-22</t>
+  </si>
+  <si>
+    <t>meterNo-23</t>
+  </si>
+  <si>
+    <t>meterNo-24</t>
+  </si>
+  <si>
+    <t>meterNo-25</t>
+  </si>
+  <si>
+    <t>meterNo-26</t>
+  </si>
+  <si>
+    <t>meterNo-27</t>
+  </si>
+  <si>
+    <t>meterNo-28</t>
+  </si>
+  <si>
+    <t>meterNo-29</t>
+  </si>
+  <si>
+    <t>meterNo-30</t>
+  </si>
+  <si>
+    <t>meterNo-31</t>
+  </si>
+  <si>
+    <t>meterNo-32</t>
+  </si>
+  <si>
+    <t>meterNo-33</t>
+  </si>
+  <si>
+    <t>meterNo-34</t>
+  </si>
+  <si>
+    <t>meterNo-35</t>
+  </si>
+  <si>
+    <t>meterNo-36</t>
+  </si>
+  <si>
+    <t>meterNo-37</t>
+  </si>
+  <si>
+    <t>meterNo-38</t>
+  </si>
+  <si>
+    <t>meterNo-39</t>
+  </si>
+  <si>
+    <t>meterNo-40</t>
+  </si>
+  <si>
+    <t>meterNo-41</t>
+  </si>
+  <si>
+    <t>meterNo-42</t>
+  </si>
+  <si>
+    <t>meterNo-43</t>
+  </si>
+  <si>
+    <t>meterNo-44</t>
+  </si>
+  <si>
+    <t>meterNo-45</t>
+  </si>
+  <si>
+    <t>meterNo-46</t>
+  </si>
+  <si>
+    <t>meterNo-47</t>
+  </si>
+  <si>
+    <t>meterNo-48</t>
+  </si>
+  <si>
+    <t>meterNo-49</t>
+  </si>
+  <si>
+    <t>meterNo-50</t>
+  </si>
+  <si>
+    <t>meterNo-51</t>
+  </si>
+  <si>
+    <t>meterNo-52</t>
+  </si>
+  <si>
+    <t>meterNo-53</t>
+  </si>
+  <si>
+    <t>meterNo-54</t>
+  </si>
+  <si>
+    <t>meterNo-55</t>
+  </si>
+  <si>
+    <t>meterNo-56</t>
+  </si>
+  <si>
+    <t>meterNo-57</t>
+  </si>
+  <si>
+    <t>meterNo-58</t>
+  </si>
+  <si>
+    <t>meterNo-59</t>
+  </si>
+  <si>
+    <t>meterNo-60</t>
+  </si>
+  <si>
+    <t>meterNo-61</t>
+  </si>
+  <si>
+    <t>meterNo-62</t>
+  </si>
+  <si>
+    <t>meterNo-63</t>
+  </si>
+  <si>
+    <t>meterNo-64</t>
+  </si>
+  <si>
+    <t>meterNo-65</t>
+  </si>
+  <si>
+    <t>meterNo-66</t>
+  </si>
+  <si>
+    <t>meterNo-67</t>
+  </si>
+  <si>
+    <t>meterNo-68</t>
+  </si>
+  <si>
+    <t>meterNo-69</t>
+  </si>
+  <si>
+    <t>meterNo-70</t>
+  </si>
+  <si>
+    <t>meterNo-71</t>
+  </si>
+  <si>
+    <t>meterNo-72</t>
+  </si>
+  <si>
+    <t>meterNo-73</t>
+  </si>
+  <si>
+    <t>meterNo-74</t>
+  </si>
+  <si>
+    <t>meterNo-75</t>
+  </si>
+  <si>
+    <t>meterNo-76</t>
+  </si>
+  <si>
+    <t>meterNo-77</t>
+  </si>
+  <si>
+    <t>meterNo-78</t>
+  </si>
+  <si>
+    <t>meterNo-79</t>
+  </si>
+  <si>
+    <t>meterNo-80</t>
+  </si>
+  <si>
+    <t>meterNo-81</t>
+  </si>
+  <si>
+    <t>meterNo-82</t>
+  </si>
+  <si>
+    <t>meterNo-83</t>
+  </si>
+  <si>
+    <t>meterNo-84</t>
+  </si>
+  <si>
+    <t>meterNo-85</t>
+  </si>
+  <si>
+    <t>meterNo-86</t>
+  </si>
+  <si>
+    <t>meterNo-87</t>
+  </si>
+  <si>
+    <t>meterNo-88</t>
+  </si>
+  <si>
+    <t>meterNo-89</t>
+  </si>
+  <si>
+    <t>meterNo-90</t>
+  </si>
+  <si>
+    <t>meterNo-91</t>
+  </si>
+  <si>
+    <t>meterNo-92</t>
+  </si>
+  <si>
+    <t>meterNo-93</t>
+  </si>
+  <si>
+    <t>meterNo-94</t>
+  </si>
+  <si>
+    <t>meterNo-95</t>
+  </si>
+  <si>
+    <t>meterNo-96</t>
+  </si>
+  <si>
+    <t>meterNo-97</t>
+  </si>
+  <si>
+    <t>meterNo-98</t>
+  </si>
+  <si>
+    <t>meterNo-99</t>
+  </si>
+  <si>
+    <t>meterNo-100</t>
+  </si>
+  <si>
+    <t>city-3</t>
+  </si>
+  <si>
+    <t>city-4</t>
+  </si>
+  <si>
+    <t>city-5</t>
+  </si>
+  <si>
+    <t>city-6</t>
+  </si>
+  <si>
+    <t>city-7</t>
+  </si>
+  <si>
+    <t>city-8</t>
+  </si>
+  <si>
+    <t>city-9</t>
+  </si>
+  <si>
+    <t>city-10</t>
+  </si>
+  <si>
+    <t>city-11</t>
+  </si>
+  <si>
+    <t>city-12</t>
+  </si>
+  <si>
+    <t>city-13</t>
+  </si>
+  <si>
+    <t>city-14</t>
+  </si>
+  <si>
+    <t>city-15</t>
+  </si>
+  <si>
+    <t>city-16</t>
+  </si>
+  <si>
+    <t>city-17</t>
+  </si>
+  <si>
+    <t>city-18</t>
+  </si>
+  <si>
+    <t>city-19</t>
+  </si>
+  <si>
+    <t>city-20</t>
+  </si>
+  <si>
+    <t>city-21</t>
+  </si>
+  <si>
+    <t>city-22</t>
+  </si>
+  <si>
+    <t>city-23</t>
+  </si>
+  <si>
+    <t>city-24</t>
+  </si>
+  <si>
+    <t>city-25</t>
+  </si>
+  <si>
+    <t>city-26</t>
+  </si>
+  <si>
+    <t>city-27</t>
+  </si>
+  <si>
+    <t>city-28</t>
+  </si>
+  <si>
+    <t>city-29</t>
+  </si>
+  <si>
+    <t>city-30</t>
+  </si>
+  <si>
+    <t>city-31</t>
+  </si>
+  <si>
+    <t>city-32</t>
+  </si>
+  <si>
+    <t>city-33</t>
+  </si>
+  <si>
+    <t>city-34</t>
+  </si>
+  <si>
+    <t>city-35</t>
+  </si>
+  <si>
+    <t>city-36</t>
+  </si>
+  <si>
+    <t>city-37</t>
+  </si>
+  <si>
+    <t>city-38</t>
+  </si>
+  <si>
+    <t>city-39</t>
+  </si>
+  <si>
+    <t>city-40</t>
+  </si>
+  <si>
+    <t>city-41</t>
+  </si>
+  <si>
+    <t>city-42</t>
+  </si>
+  <si>
+    <t>city-43</t>
+  </si>
+  <si>
+    <t>city-44</t>
+  </si>
+  <si>
+    <t>city-45</t>
+  </si>
+  <si>
+    <t>city-46</t>
+  </si>
+  <si>
+    <t>city-47</t>
+  </si>
+  <si>
+    <t>city-48</t>
+  </si>
+  <si>
+    <t>city-49</t>
+  </si>
+  <si>
+    <t>city-50</t>
+  </si>
+  <si>
+    <t>city-51</t>
+  </si>
+  <si>
+    <t>city-52</t>
+  </si>
+  <si>
+    <t>city-53</t>
+  </si>
+  <si>
+    <t>city-54</t>
+  </si>
+  <si>
+    <t>city-55</t>
+  </si>
+  <si>
+    <t>city-56</t>
+  </si>
+  <si>
+    <t>city-57</t>
+  </si>
+  <si>
+    <t>city-58</t>
+  </si>
+  <si>
+    <t>city-59</t>
+  </si>
+  <si>
+    <t>city-60</t>
+  </si>
+  <si>
+    <t>city-61</t>
+  </si>
+  <si>
+    <t>city-62</t>
+  </si>
+  <si>
+    <t>city-63</t>
+  </si>
+  <si>
+    <t>city-64</t>
+  </si>
+  <si>
+    <t>city-65</t>
+  </si>
+  <si>
+    <t>city-66</t>
+  </si>
+  <si>
+    <t>city-67</t>
+  </si>
+  <si>
+    <t>city-68</t>
+  </si>
+  <si>
+    <t>city-69</t>
+  </si>
+  <si>
+    <t>city-70</t>
+  </si>
+  <si>
+    <t>city-71</t>
+  </si>
+  <si>
+    <t>city-72</t>
+  </si>
+  <si>
+    <t>city-73</t>
+  </si>
+  <si>
+    <t>city-74</t>
+  </si>
+  <si>
+    <t>city-75</t>
+  </si>
+  <si>
+    <t>city-76</t>
+  </si>
+  <si>
+    <t>city-77</t>
+  </si>
+  <si>
+    <t>city-78</t>
+  </si>
+  <si>
+    <t>city-79</t>
+  </si>
+  <si>
+    <t>city-80</t>
+  </si>
+  <si>
+    <t>city-81</t>
+  </si>
+  <si>
+    <t>city-82</t>
+  </si>
+  <si>
+    <t>city-83</t>
+  </si>
+  <si>
+    <t>city-84</t>
+  </si>
+  <si>
+    <t>city-85</t>
+  </si>
+  <si>
+    <t>city-86</t>
+  </si>
+  <si>
+    <t>city-87</t>
+  </si>
+  <si>
+    <t>city-88</t>
+  </si>
+  <si>
+    <t>city-89</t>
+  </si>
+  <si>
+    <t>city-90</t>
+  </si>
+  <si>
+    <t>city-91</t>
+  </si>
+  <si>
+    <t>city-92</t>
+  </si>
+  <si>
+    <t>city-93</t>
+  </si>
+  <si>
+    <t>city-94</t>
+  </si>
+  <si>
+    <t>city-95</t>
+  </si>
+  <si>
+    <t>city-96</t>
+  </si>
+  <si>
+    <t>city-97</t>
+  </si>
+  <si>
+    <t>city-98</t>
+  </si>
+  <si>
+    <t>city-99</t>
+  </si>
+  <si>
+    <t>city-100</t>
+  </si>
+  <si>
+    <t>street-3</t>
+  </si>
+  <si>
+    <t>street-4</t>
+  </si>
+  <si>
+    <t>street-5</t>
+  </si>
+  <si>
+    <t>street-6</t>
+  </si>
+  <si>
+    <t>street-7</t>
+  </si>
+  <si>
+    <t>street-8</t>
+  </si>
+  <si>
+    <t>street-9</t>
+  </si>
+  <si>
+    <t>street-10</t>
+  </si>
+  <si>
+    <t>street-11</t>
+  </si>
+  <si>
+    <t>street-12</t>
+  </si>
+  <si>
+    <t>street-13</t>
+  </si>
+  <si>
+    <t>street-14</t>
+  </si>
+  <si>
+    <t>street-15</t>
+  </si>
+  <si>
+    <t>street-16</t>
+  </si>
+  <si>
+    <t>street-17</t>
+  </si>
+  <si>
+    <t>street-18</t>
+  </si>
+  <si>
+    <t>street-19</t>
+  </si>
+  <si>
+    <t>street-20</t>
+  </si>
+  <si>
+    <t>street-21</t>
+  </si>
+  <si>
+    <t>street-22</t>
+  </si>
+  <si>
+    <t>street-23</t>
+  </si>
+  <si>
+    <t>street-24</t>
+  </si>
+  <si>
+    <t>street-25</t>
+  </si>
+  <si>
+    <t>street-26</t>
+  </si>
+  <si>
+    <t>street-27</t>
+  </si>
+  <si>
+    <t>street-28</t>
+  </si>
+  <si>
+    <t>street-29</t>
+  </si>
+  <si>
+    <t>street-30</t>
+  </si>
+  <si>
+    <t>street-31</t>
+  </si>
+  <si>
+    <t>street-32</t>
+  </si>
+  <si>
+    <t>street-33</t>
+  </si>
+  <si>
+    <t>street-34</t>
+  </si>
+  <si>
+    <t>street-35</t>
+  </si>
+  <si>
+    <t>street-36</t>
+  </si>
+  <si>
+    <t>street-37</t>
+  </si>
+  <si>
+    <t>street-38</t>
+  </si>
+  <si>
+    <t>street-39</t>
+  </si>
+  <si>
+    <t>street-40</t>
+  </si>
+  <si>
+    <t>street-41</t>
+  </si>
+  <si>
+    <t>street-42</t>
+  </si>
+  <si>
+    <t>street-43</t>
+  </si>
+  <si>
+    <t>street-44</t>
+  </si>
+  <si>
+    <t>street-45</t>
+  </si>
+  <si>
+    <t>street-46</t>
+  </si>
+  <si>
+    <t>street-47</t>
+  </si>
+  <si>
+    <t>street-48</t>
+  </si>
+  <si>
+    <t>street-49</t>
+  </si>
+  <si>
+    <t>street-50</t>
+  </si>
+  <si>
+    <t>street-51</t>
+  </si>
+  <si>
+    <t>street-52</t>
+  </si>
+  <si>
+    <t>street-53</t>
+  </si>
+  <si>
+    <t>street-54</t>
+  </si>
+  <si>
+    <t>street-55</t>
+  </si>
+  <si>
+    <t>street-56</t>
+  </si>
+  <si>
+    <t>street-57</t>
+  </si>
+  <si>
+    <t>street-58</t>
+  </si>
+  <si>
+    <t>street-59</t>
+  </si>
+  <si>
+    <t>street-60</t>
+  </si>
+  <si>
+    <t>street-61</t>
+  </si>
+  <si>
+    <t>street-62</t>
+  </si>
+  <si>
+    <t>street-63</t>
+  </si>
+  <si>
+    <t>street-64</t>
+  </si>
+  <si>
+    <t>street-65</t>
+  </si>
+  <si>
+    <t>street-66</t>
+  </si>
+  <si>
+    <t>street-67</t>
+  </si>
+  <si>
+    <t>street-68</t>
+  </si>
+  <si>
+    <t>street-69</t>
+  </si>
+  <si>
+    <t>street-70</t>
+  </si>
+  <si>
+    <t>street-71</t>
+  </si>
+  <si>
+    <t>street-72</t>
+  </si>
+  <si>
+    <t>street-73</t>
+  </si>
+  <si>
+    <t>street-74</t>
+  </si>
+  <si>
+    <t>street-75</t>
+  </si>
+  <si>
+    <t>street-76</t>
+  </si>
+  <si>
+    <t>street-77</t>
+  </si>
+  <si>
+    <t>street-78</t>
+  </si>
+  <si>
+    <t>street-79</t>
+  </si>
+  <si>
+    <t>street-80</t>
+  </si>
+  <si>
+    <t>street-81</t>
+  </si>
+  <si>
+    <t>street-82</t>
+  </si>
+  <si>
+    <t>street-83</t>
+  </si>
+  <si>
+    <t>street-84</t>
+  </si>
+  <si>
+    <t>street-85</t>
+  </si>
+  <si>
+    <t>street-86</t>
+  </si>
+  <si>
+    <t>street-87</t>
+  </si>
+  <si>
+    <t>street-88</t>
+  </si>
+  <si>
+    <t>street-89</t>
+  </si>
+  <si>
+    <t>street-90</t>
+  </si>
+  <si>
+    <t>street-91</t>
+  </si>
+  <si>
+    <t>street-92</t>
+  </si>
+  <si>
+    <t>street-93</t>
+  </si>
+  <si>
+    <t>street-94</t>
+  </si>
+  <si>
+    <t>street-95</t>
+  </si>
+  <si>
+    <t>street-96</t>
+  </si>
+  <si>
+    <t>street-97</t>
+  </si>
+  <si>
+    <t>street-98</t>
+  </si>
+  <si>
+    <t>street-99</t>
+  </si>
+  <si>
+    <t>street-100</t>
+  </si>
+  <si>
+    <t>zipcode-3</t>
+  </si>
+  <si>
+    <t>zipcode-4</t>
+  </si>
+  <si>
+    <t>zipcode-5</t>
+  </si>
+  <si>
+    <t>zipcode-6</t>
+  </si>
+  <si>
+    <t>zipcode-7</t>
+  </si>
+  <si>
+    <t>zipcode-8</t>
+  </si>
+  <si>
+    <t>zipcode-9</t>
+  </si>
+  <si>
+    <t>zipcode-10</t>
+  </si>
+  <si>
+    <t>zipcode-11</t>
+  </si>
+  <si>
+    <t>zipcode-12</t>
+  </si>
+  <si>
+    <t>zipcode-13</t>
+  </si>
+  <si>
+    <t>zipcode-14</t>
+  </si>
+  <si>
+    <t>zipcode-15</t>
+  </si>
+  <si>
+    <t>zipcode-16</t>
+  </si>
+  <si>
+    <t>zipcode-17</t>
+  </si>
+  <si>
+    <t>zipcode-18</t>
+  </si>
+  <si>
+    <t>zipcode-19</t>
+  </si>
+  <si>
+    <t>zipcode-20</t>
+  </si>
+  <si>
+    <t>zipcode-21</t>
+  </si>
+  <si>
+    <t>zipcode-22</t>
+  </si>
+  <si>
+    <t>zipcode-23</t>
+  </si>
+  <si>
+    <t>zipcode-24</t>
+  </si>
+  <si>
+    <t>zipcode-25</t>
+  </si>
+  <si>
+    <t>zipcode-26</t>
+  </si>
+  <si>
+    <t>zipcode-27</t>
+  </si>
+  <si>
+    <t>zipcode-28</t>
+  </si>
+  <si>
+    <t>zipcode-29</t>
+  </si>
+  <si>
+    <t>zipcode-30</t>
+  </si>
+  <si>
+    <t>zipcode-31</t>
+  </si>
+  <si>
+    <t>zipcode-32</t>
+  </si>
+  <si>
+    <t>zipcode-33</t>
+  </si>
+  <si>
+    <t>zipcode-34</t>
+  </si>
+  <si>
+    <t>zipcode-35</t>
+  </si>
+  <si>
+    <t>zipcode-36</t>
+  </si>
+  <si>
+    <t>zipcode-37</t>
+  </si>
+  <si>
+    <t>zipcode-38</t>
+  </si>
+  <si>
+    <t>zipcode-39</t>
+  </si>
+  <si>
+    <t>zipcode-40</t>
+  </si>
+  <si>
+    <t>zipcode-41</t>
+  </si>
+  <si>
+    <t>zipcode-42</t>
+  </si>
+  <si>
+    <t>zipcode-43</t>
+  </si>
+  <si>
+    <t>zipcode-44</t>
+  </si>
+  <si>
+    <t>zipcode-45</t>
+  </si>
+  <si>
+    <t>zipcode-46</t>
+  </si>
+  <si>
+    <t>zipcode-47</t>
+  </si>
+  <si>
+    <t>zipcode-48</t>
+  </si>
+  <si>
+    <t>zipcode-49</t>
+  </si>
+  <si>
+    <t>zipcode-50</t>
+  </si>
+  <si>
+    <t>zipcode-51</t>
+  </si>
+  <si>
+    <t>zipcode-52</t>
+  </si>
+  <si>
+    <t>zipcode-53</t>
+  </si>
+  <si>
+    <t>zipcode-54</t>
+  </si>
+  <si>
+    <t>zipcode-55</t>
+  </si>
+  <si>
+    <t>zipcode-56</t>
+  </si>
+  <si>
+    <t>zipcode-57</t>
+  </si>
+  <si>
+    <t>zipcode-58</t>
+  </si>
+  <si>
+    <t>zipcode-59</t>
+  </si>
+  <si>
+    <t>zipcode-60</t>
+  </si>
+  <si>
+    <t>zipcode-61</t>
+  </si>
+  <si>
+    <t>zipcode-62</t>
+  </si>
+  <si>
+    <t>zipcode-63</t>
+  </si>
+  <si>
+    <t>zipcode-64</t>
+  </si>
+  <si>
+    <t>zipcode-65</t>
+  </si>
+  <si>
+    <t>zipcode-66</t>
+  </si>
+  <si>
+    <t>zipcode-67</t>
+  </si>
+  <si>
+    <t>zipcode-68</t>
+  </si>
+  <si>
+    <t>zipcode-69</t>
+  </si>
+  <si>
+    <t>zipcode-70</t>
+  </si>
+  <si>
+    <t>zipcode-71</t>
+  </si>
+  <si>
+    <t>zipcode-72</t>
+  </si>
+  <si>
+    <t>zipcode-73</t>
+  </si>
+  <si>
+    <t>zipcode-74</t>
+  </si>
+  <si>
+    <t>zipcode-75</t>
+  </si>
+  <si>
+    <t>zipcode-76</t>
+  </si>
+  <si>
+    <t>zipcode-77</t>
+  </si>
+  <si>
+    <t>zipcode-78</t>
+  </si>
+  <si>
+    <t>zipcode-79</t>
+  </si>
+  <si>
+    <t>zipcode-80</t>
+  </si>
+  <si>
+    <t>zipcode-81</t>
+  </si>
+  <si>
+    <t>zipcode-82</t>
+  </si>
+  <si>
+    <t>zipcode-83</t>
+  </si>
+  <si>
+    <t>zipcode-84</t>
+  </si>
+  <si>
+    <t>zipcode-85</t>
+  </si>
+  <si>
+    <t>zipcode-86</t>
+  </si>
+  <si>
+    <t>zipcode-87</t>
+  </si>
+  <si>
+    <t>zipcode-88</t>
+  </si>
+  <si>
+    <t>zipcode-89</t>
+  </si>
+  <si>
+    <t>zipcode-90</t>
+  </si>
+  <si>
+    <t>zipcode-91</t>
+  </si>
+  <si>
+    <t>zipcode-92</t>
+  </si>
+  <si>
+    <t>zipcode-93</t>
+  </si>
+  <si>
+    <t>zipcode-94</t>
+  </si>
+  <si>
+    <t>zipcode-95</t>
+  </si>
+  <si>
+    <t>zipcode-96</t>
+  </si>
+  <si>
+    <t>zipcode-97</t>
+  </si>
+  <si>
+    <t>zipcode-98</t>
+  </si>
+  <si>
+    <t>zipcode-99</t>
+  </si>
+  <si>
+    <t>zipcode-100</t>
+  </si>
+  <si>
+    <t>geoY-3</t>
+  </si>
+  <si>
+    <t>geoY-4</t>
+  </si>
+  <si>
+    <t>geoY-5</t>
+  </si>
+  <si>
+    <t>geoY-6</t>
+  </si>
+  <si>
+    <t>geoY-7</t>
+  </si>
+  <si>
+    <t>geoY-8</t>
+  </si>
+  <si>
+    <t>geoY-9</t>
+  </si>
+  <si>
+    <t>geoY-10</t>
+  </si>
+  <si>
+    <t>geoY-11</t>
+  </si>
+  <si>
+    <t>geoY-12</t>
+  </si>
+  <si>
+    <t>geoY-13</t>
+  </si>
+  <si>
+    <t>geoY-14</t>
+  </si>
+  <si>
+    <t>geoY-15</t>
+  </si>
+  <si>
+    <t>geoY-16</t>
+  </si>
+  <si>
+    <t>geoY-17</t>
+  </si>
+  <si>
+    <t>geoY-18</t>
+  </si>
+  <si>
+    <t>geoY-19</t>
+  </si>
+  <si>
+    <t>geoY-20</t>
+  </si>
+  <si>
+    <t>geoY-21</t>
+  </si>
+  <si>
+    <t>geoY-22</t>
+  </si>
+  <si>
+    <t>geoY-23</t>
+  </si>
+  <si>
+    <t>geoY-24</t>
+  </si>
+  <si>
+    <t>geoY-25</t>
+  </si>
+  <si>
+    <t>geoY-26</t>
+  </si>
+  <si>
+    <t>geoY-27</t>
+  </si>
+  <si>
+    <t>geoY-28</t>
+  </si>
+  <si>
+    <t>geoY-29</t>
+  </si>
+  <si>
+    <t>geoY-30</t>
+  </si>
+  <si>
+    <t>geoY-31</t>
+  </si>
+  <si>
+    <t>geoY-32</t>
+  </si>
+  <si>
+    <t>geoY-33</t>
+  </si>
+  <si>
+    <t>geoY-34</t>
+  </si>
+  <si>
+    <t>geoY-35</t>
+  </si>
+  <si>
+    <t>geoY-36</t>
+  </si>
+  <si>
+    <t>geoY-37</t>
+  </si>
+  <si>
+    <t>geoY-38</t>
+  </si>
+  <si>
+    <t>geoY-39</t>
+  </si>
+  <si>
+    <t>geoY-40</t>
+  </si>
+  <si>
+    <t>geoY-41</t>
+  </si>
+  <si>
+    <t>geoY-42</t>
+  </si>
+  <si>
+    <t>geoY-43</t>
+  </si>
+  <si>
+    <t>geoY-44</t>
+  </si>
+  <si>
+    <t>geoY-45</t>
+  </si>
+  <si>
+    <t>geoY-46</t>
+  </si>
+  <si>
+    <t>geoY-47</t>
+  </si>
+  <si>
+    <t>geoY-48</t>
+  </si>
+  <si>
+    <t>geoY-49</t>
+  </si>
+  <si>
+    <t>geoY-50</t>
+  </si>
+  <si>
+    <t>geoY-51</t>
+  </si>
+  <si>
+    <t>geoY-52</t>
+  </si>
+  <si>
+    <t>geoY-53</t>
+  </si>
+  <si>
+    <t>geoY-54</t>
+  </si>
+  <si>
+    <t>geoY-55</t>
+  </si>
+  <si>
+    <t>geoY-56</t>
+  </si>
+  <si>
+    <t>geoY-57</t>
+  </si>
+  <si>
+    <t>geoY-58</t>
+  </si>
+  <si>
+    <t>geoY-59</t>
+  </si>
+  <si>
+    <t>geoY-60</t>
+  </si>
+  <si>
+    <t>geoY-61</t>
+  </si>
+  <si>
+    <t>geoY-62</t>
+  </si>
+  <si>
+    <t>geoY-63</t>
+  </si>
+  <si>
+    <t>geoY-64</t>
+  </si>
+  <si>
+    <t>geoY-65</t>
+  </si>
+  <si>
+    <t>geoY-66</t>
+  </si>
+  <si>
+    <t>geoY-67</t>
+  </si>
+  <si>
+    <t>geoY-68</t>
+  </si>
+  <si>
+    <t>geoY-69</t>
+  </si>
+  <si>
+    <t>geoY-70</t>
+  </si>
+  <si>
+    <t>geoY-71</t>
+  </si>
+  <si>
+    <t>geoY-72</t>
+  </si>
+  <si>
+    <t>geoY-73</t>
+  </si>
+  <si>
+    <t>geoY-74</t>
+  </si>
+  <si>
+    <t>geoY-75</t>
+  </si>
+  <si>
+    <t>geoY-76</t>
+  </si>
+  <si>
+    <t>geoY-77</t>
+  </si>
+  <si>
+    <t>geoY-78</t>
+  </si>
+  <si>
+    <t>geoY-79</t>
+  </si>
+  <si>
+    <t>geoY-80</t>
+  </si>
+  <si>
+    <t>geoY-81</t>
+  </si>
+  <si>
+    <t>geoY-82</t>
+  </si>
+  <si>
+    <t>geoY-83</t>
+  </si>
+  <si>
+    <t>geoY-84</t>
+  </si>
+  <si>
+    <t>geoY-85</t>
+  </si>
+  <si>
+    <t>geoY-86</t>
+  </si>
+  <si>
+    <t>geoY-87</t>
+  </si>
+  <si>
+    <t>geoY-88</t>
+  </si>
+  <si>
+    <t>geoY-89</t>
+  </si>
+  <si>
+    <t>geoY-90</t>
+  </si>
+  <si>
+    <t>geoY-91</t>
+  </si>
+  <si>
+    <t>geoY-92</t>
+  </si>
+  <si>
+    <t>geoY-93</t>
+  </si>
+  <si>
+    <t>geoY-94</t>
+  </si>
+  <si>
+    <t>geoY-95</t>
+  </si>
+  <si>
+    <t>geoY-96</t>
+  </si>
+  <si>
+    <t>geoY-97</t>
+  </si>
+  <si>
+    <t>geoY-98</t>
+  </si>
+  <si>
+    <t>geoY-99</t>
+  </si>
+  <si>
+    <t>geoY-100</t>
+  </si>
+  <si>
+    <t>geoX-3</t>
+  </si>
+  <si>
+    <t>geoX-4</t>
+  </si>
+  <si>
+    <t>geoX-5</t>
+  </si>
+  <si>
+    <t>geoX-6</t>
+  </si>
+  <si>
+    <t>geoX-7</t>
+  </si>
+  <si>
+    <t>geoX-8</t>
+  </si>
+  <si>
+    <t>geoX-9</t>
+  </si>
+  <si>
+    <t>geoX-10</t>
+  </si>
+  <si>
+    <t>geoX-11</t>
+  </si>
+  <si>
+    <t>geoX-12</t>
+  </si>
+  <si>
+    <t>geoX-13</t>
+  </si>
+  <si>
+    <t>geoX-14</t>
+  </si>
+  <si>
+    <t>geoX-15</t>
+  </si>
+  <si>
+    <t>geoX-16</t>
+  </si>
+  <si>
+    <t>geoX-17</t>
+  </si>
+  <si>
+    <t>geoX-18</t>
+  </si>
+  <si>
+    <t>geoX-19</t>
+  </si>
+  <si>
+    <t>geoX-20</t>
+  </si>
+  <si>
+    <t>geoX-21</t>
+  </si>
+  <si>
+    <t>geoX-22</t>
+  </si>
+  <si>
+    <t>geoX-23</t>
+  </si>
+  <si>
+    <t>geoX-24</t>
+  </si>
+  <si>
+    <t>geoX-25</t>
+  </si>
+  <si>
+    <t>geoX-26</t>
+  </si>
+  <si>
+    <t>geoX-27</t>
+  </si>
+  <si>
+    <t>geoX-28</t>
+  </si>
+  <si>
+    <t>geoX-29</t>
+  </si>
+  <si>
+    <t>geoX-30</t>
+  </si>
+  <si>
+    <t>geoX-31</t>
+  </si>
+  <si>
+    <t>geoX-32</t>
+  </si>
+  <si>
+    <t>geoX-33</t>
+  </si>
+  <si>
+    <t>geoX-34</t>
+  </si>
+  <si>
+    <t>geoX-35</t>
+  </si>
+  <si>
+    <t>geoX-36</t>
+  </si>
+  <si>
+    <t>geoX-37</t>
+  </si>
+  <si>
+    <t>geoX-38</t>
+  </si>
+  <si>
+    <t>geoX-39</t>
+  </si>
+  <si>
+    <t>geoX-40</t>
+  </si>
+  <si>
+    <t>geoX-41</t>
+  </si>
+  <si>
+    <t>geoX-42</t>
+  </si>
+  <si>
+    <t>geoX-43</t>
+  </si>
+  <si>
+    <t>geoX-44</t>
+  </si>
+  <si>
+    <t>geoX-45</t>
+  </si>
+  <si>
+    <t>geoX-46</t>
+  </si>
+  <si>
+    <t>geoX-47</t>
+  </si>
+  <si>
+    <t>geoX-48</t>
+  </si>
+  <si>
+    <t>geoX-49</t>
+  </si>
+  <si>
+    <t>geoX-50</t>
+  </si>
+  <si>
+    <t>geoX-51</t>
+  </si>
+  <si>
+    <t>geoX-52</t>
+  </si>
+  <si>
+    <t>geoX-53</t>
+  </si>
+  <si>
+    <t>geoX-54</t>
+  </si>
+  <si>
+    <t>geoX-55</t>
+  </si>
+  <si>
+    <t>geoX-56</t>
+  </si>
+  <si>
+    <t>geoX-57</t>
+  </si>
+  <si>
+    <t>geoX-58</t>
+  </si>
+  <si>
+    <t>geoX-59</t>
+  </si>
+  <si>
+    <t>geoX-60</t>
+  </si>
+  <si>
+    <t>geoX-61</t>
+  </si>
+  <si>
+    <t>geoX-62</t>
+  </si>
+  <si>
+    <t>geoX-63</t>
+  </si>
+  <si>
+    <t>geoX-64</t>
+  </si>
+  <si>
+    <t>geoX-65</t>
+  </si>
+  <si>
+    <t>geoX-66</t>
+  </si>
+  <si>
+    <t>geoX-67</t>
+  </si>
+  <si>
+    <t>geoX-68</t>
+  </si>
+  <si>
+    <t>geoX-69</t>
+  </si>
+  <si>
+    <t>geoX-70</t>
+  </si>
+  <si>
+    <t>geoX-71</t>
+  </si>
+  <si>
+    <t>geoX-72</t>
+  </si>
+  <si>
+    <t>geoX-73</t>
+  </si>
+  <si>
+    <t>geoX-74</t>
+  </si>
+  <si>
+    <t>geoX-75</t>
+  </si>
+  <si>
+    <t>geoX-76</t>
+  </si>
+  <si>
+    <t>geoX-77</t>
+  </si>
+  <si>
+    <t>geoX-78</t>
+  </si>
+  <si>
+    <t>geoX-79</t>
+  </si>
+  <si>
+    <t>geoX-80</t>
+  </si>
+  <si>
+    <t>geoX-81</t>
+  </si>
+  <si>
+    <t>geoX-82</t>
+  </si>
+  <si>
+    <t>geoX-83</t>
+  </si>
+  <si>
+    <t>geoX-84</t>
+  </si>
+  <si>
+    <t>geoX-85</t>
+  </si>
+  <si>
+    <t>geoX-86</t>
+  </si>
+  <si>
+    <t>geoX-87</t>
+  </si>
+  <si>
+    <t>geoX-88</t>
+  </si>
+  <si>
+    <t>geoX-89</t>
+  </si>
+  <si>
+    <t>geoX-90</t>
+  </si>
+  <si>
+    <t>geoX-91</t>
+  </si>
+  <si>
+    <t>geoX-92</t>
+  </si>
+  <si>
+    <t>geoX-93</t>
+  </si>
+  <si>
+    <t>geoX-94</t>
+  </si>
+  <si>
+    <t>geoX-95</t>
+  </si>
+  <si>
+    <t>geoX-96</t>
+  </si>
+  <si>
+    <t>geoX-97</t>
+  </si>
+  <si>
+    <t>geoX-98</t>
+  </si>
+  <si>
+    <t>geoX-99</t>
+  </si>
+  <si>
+    <t>geoX-100</t>
   </si>
 </sst>
 </file>
@@ -509,10 +2861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C939720-1342-F44B-974B-0500960D5EE1}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -602,6 +2954,2554 @@
         <v>23</v>
       </c>
     </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D4" t="s">
+        <v>318</v>
+      </c>
+      <c r="E4" t="s">
+        <v>416</v>
+      </c>
+      <c r="F4" t="s">
+        <v>514</v>
+      </c>
+      <c r="G4" t="s">
+        <v>710</v>
+      </c>
+      <c r="H4" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E5" t="s">
+        <v>417</v>
+      </c>
+      <c r="F5" t="s">
+        <v>515</v>
+      </c>
+      <c r="G5" t="s">
+        <v>711</v>
+      </c>
+      <c r="H5" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" t="s">
+        <v>320</v>
+      </c>
+      <c r="E6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F6" t="s">
+        <v>516</v>
+      </c>
+      <c r="G6" t="s">
+        <v>712</v>
+      </c>
+      <c r="H6" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D7" t="s">
+        <v>321</v>
+      </c>
+      <c r="E7" t="s">
+        <v>419</v>
+      </c>
+      <c r="F7" t="s">
+        <v>517</v>
+      </c>
+      <c r="G7" t="s">
+        <v>713</v>
+      </c>
+      <c r="H7" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D8" t="s">
+        <v>322</v>
+      </c>
+      <c r="E8" t="s">
+        <v>420</v>
+      </c>
+      <c r="F8" t="s">
+        <v>518</v>
+      </c>
+      <c r="G8" t="s">
+        <v>714</v>
+      </c>
+      <c r="H8" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" t="s">
+        <v>225</v>
+      </c>
+      <c r="D9" t="s">
+        <v>323</v>
+      </c>
+      <c r="E9" t="s">
+        <v>421</v>
+      </c>
+      <c r="F9" t="s">
+        <v>519</v>
+      </c>
+      <c r="G9" t="s">
+        <v>715</v>
+      </c>
+      <c r="H9" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D10" t="s">
+        <v>324</v>
+      </c>
+      <c r="E10" t="s">
+        <v>422</v>
+      </c>
+      <c r="F10" t="s">
+        <v>520</v>
+      </c>
+      <c r="G10" t="s">
+        <v>716</v>
+      </c>
+      <c r="H10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" t="s">
+        <v>227</v>
+      </c>
+      <c r="D11" t="s">
+        <v>325</v>
+      </c>
+      <c r="E11" t="s">
+        <v>423</v>
+      </c>
+      <c r="F11" t="s">
+        <v>521</v>
+      </c>
+      <c r="G11" t="s">
+        <v>717</v>
+      </c>
+      <c r="H11" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D12" t="s">
+        <v>326</v>
+      </c>
+      <c r="E12" t="s">
+        <v>424</v>
+      </c>
+      <c r="F12" t="s">
+        <v>522</v>
+      </c>
+      <c r="G12" t="s">
+        <v>718</v>
+      </c>
+      <c r="H12" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" t="s">
+        <v>229</v>
+      </c>
+      <c r="D13" t="s">
+        <v>327</v>
+      </c>
+      <c r="E13" t="s">
+        <v>425</v>
+      </c>
+      <c r="F13" t="s">
+        <v>523</v>
+      </c>
+      <c r="G13" t="s">
+        <v>719</v>
+      </c>
+      <c r="H13" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" t="s">
+        <v>230</v>
+      </c>
+      <c r="D14" t="s">
+        <v>328</v>
+      </c>
+      <c r="E14" t="s">
+        <v>426</v>
+      </c>
+      <c r="F14" t="s">
+        <v>524</v>
+      </c>
+      <c r="G14" t="s">
+        <v>720</v>
+      </c>
+      <c r="H14" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" t="s">
+        <v>231</v>
+      </c>
+      <c r="D15" t="s">
+        <v>329</v>
+      </c>
+      <c r="E15" t="s">
+        <v>427</v>
+      </c>
+      <c r="F15" t="s">
+        <v>525</v>
+      </c>
+      <c r="G15" t="s">
+        <v>721</v>
+      </c>
+      <c r="H15" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" t="s">
+        <v>232</v>
+      </c>
+      <c r="D16" t="s">
+        <v>330</v>
+      </c>
+      <c r="E16" t="s">
+        <v>428</v>
+      </c>
+      <c r="F16" t="s">
+        <v>526</v>
+      </c>
+      <c r="G16" t="s">
+        <v>722</v>
+      </c>
+      <c r="H16" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" t="s">
+        <v>233</v>
+      </c>
+      <c r="D17" t="s">
+        <v>331</v>
+      </c>
+      <c r="E17" t="s">
+        <v>429</v>
+      </c>
+      <c r="F17" t="s">
+        <v>527</v>
+      </c>
+      <c r="G17" t="s">
+        <v>723</v>
+      </c>
+      <c r="H17" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" t="s">
+        <v>234</v>
+      </c>
+      <c r="D18" t="s">
+        <v>332</v>
+      </c>
+      <c r="E18" t="s">
+        <v>430</v>
+      </c>
+      <c r="F18" t="s">
+        <v>528</v>
+      </c>
+      <c r="G18" t="s">
+        <v>724</v>
+      </c>
+      <c r="H18" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" t="s">
+        <v>235</v>
+      </c>
+      <c r="D19" t="s">
+        <v>333</v>
+      </c>
+      <c r="E19" t="s">
+        <v>431</v>
+      </c>
+      <c r="F19" t="s">
+        <v>529</v>
+      </c>
+      <c r="G19" t="s">
+        <v>725</v>
+      </c>
+      <c r="H19" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" t="s">
+        <v>236</v>
+      </c>
+      <c r="D20" t="s">
+        <v>334</v>
+      </c>
+      <c r="E20" t="s">
+        <v>432</v>
+      </c>
+      <c r="F20" t="s">
+        <v>530</v>
+      </c>
+      <c r="G20" t="s">
+        <v>726</v>
+      </c>
+      <c r="H20" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" t="s">
+        <v>237</v>
+      </c>
+      <c r="D21" t="s">
+        <v>335</v>
+      </c>
+      <c r="E21" t="s">
+        <v>433</v>
+      </c>
+      <c r="F21" t="s">
+        <v>531</v>
+      </c>
+      <c r="G21" t="s">
+        <v>727</v>
+      </c>
+      <c r="H21" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" t="s">
+        <v>238</v>
+      </c>
+      <c r="D22" t="s">
+        <v>336</v>
+      </c>
+      <c r="E22" t="s">
+        <v>434</v>
+      </c>
+      <c r="F22" t="s">
+        <v>532</v>
+      </c>
+      <c r="G22" t="s">
+        <v>728</v>
+      </c>
+      <c r="H22" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" t="s">
+        <v>239</v>
+      </c>
+      <c r="D23" t="s">
+        <v>337</v>
+      </c>
+      <c r="E23" t="s">
+        <v>435</v>
+      </c>
+      <c r="F23" t="s">
+        <v>533</v>
+      </c>
+      <c r="G23" t="s">
+        <v>729</v>
+      </c>
+      <c r="H23" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" t="s">
+        <v>142</v>
+      </c>
+      <c r="C24" t="s">
+        <v>240</v>
+      </c>
+      <c r="D24" t="s">
+        <v>338</v>
+      </c>
+      <c r="E24" t="s">
+        <v>436</v>
+      </c>
+      <c r="F24" t="s">
+        <v>534</v>
+      </c>
+      <c r="G24" t="s">
+        <v>730</v>
+      </c>
+      <c r="H24" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" t="s">
+        <v>143</v>
+      </c>
+      <c r="C25" t="s">
+        <v>241</v>
+      </c>
+      <c r="D25" t="s">
+        <v>339</v>
+      </c>
+      <c r="E25" t="s">
+        <v>437</v>
+      </c>
+      <c r="F25" t="s">
+        <v>535</v>
+      </c>
+      <c r="G25" t="s">
+        <v>731</v>
+      </c>
+      <c r="H25" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" t="s">
+        <v>242</v>
+      </c>
+      <c r="D26" t="s">
+        <v>340</v>
+      </c>
+      <c r="E26" t="s">
+        <v>438</v>
+      </c>
+      <c r="F26" t="s">
+        <v>536</v>
+      </c>
+      <c r="G26" t="s">
+        <v>732</v>
+      </c>
+      <c r="H26" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" t="s">
+        <v>145</v>
+      </c>
+      <c r="C27" t="s">
+        <v>243</v>
+      </c>
+      <c r="D27" t="s">
+        <v>341</v>
+      </c>
+      <c r="E27" t="s">
+        <v>439</v>
+      </c>
+      <c r="F27" t="s">
+        <v>537</v>
+      </c>
+      <c r="G27" t="s">
+        <v>733</v>
+      </c>
+      <c r="H27" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" t="s">
+        <v>146</v>
+      </c>
+      <c r="C28" t="s">
+        <v>244</v>
+      </c>
+      <c r="D28" t="s">
+        <v>342</v>
+      </c>
+      <c r="E28" t="s">
+        <v>440</v>
+      </c>
+      <c r="F28" t="s">
+        <v>538</v>
+      </c>
+      <c r="G28" t="s">
+        <v>734</v>
+      </c>
+      <c r="H28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" t="s">
+        <v>245</v>
+      </c>
+      <c r="D29" t="s">
+        <v>343</v>
+      </c>
+      <c r="E29" t="s">
+        <v>441</v>
+      </c>
+      <c r="F29" t="s">
+        <v>539</v>
+      </c>
+      <c r="G29" t="s">
+        <v>735</v>
+      </c>
+      <c r="H29" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" t="s">
+        <v>246</v>
+      </c>
+      <c r="D30" t="s">
+        <v>344</v>
+      </c>
+      <c r="E30" t="s">
+        <v>442</v>
+      </c>
+      <c r="F30" t="s">
+        <v>540</v>
+      </c>
+      <c r="G30" t="s">
+        <v>736</v>
+      </c>
+      <c r="H30" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C31" t="s">
+        <v>247</v>
+      </c>
+      <c r="D31" t="s">
+        <v>345</v>
+      </c>
+      <c r="E31" t="s">
+        <v>443</v>
+      </c>
+      <c r="F31" t="s">
+        <v>541</v>
+      </c>
+      <c r="G31" t="s">
+        <v>737</v>
+      </c>
+      <c r="H31" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" t="s">
+        <v>150</v>
+      </c>
+      <c r="C32" t="s">
+        <v>248</v>
+      </c>
+      <c r="D32" t="s">
+        <v>346</v>
+      </c>
+      <c r="E32" t="s">
+        <v>444</v>
+      </c>
+      <c r="F32" t="s">
+        <v>542</v>
+      </c>
+      <c r="G32" t="s">
+        <v>738</v>
+      </c>
+      <c r="H32" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" t="s">
+        <v>151</v>
+      </c>
+      <c r="C33" t="s">
+        <v>249</v>
+      </c>
+      <c r="D33" t="s">
+        <v>347</v>
+      </c>
+      <c r="E33" t="s">
+        <v>445</v>
+      </c>
+      <c r="F33" t="s">
+        <v>543</v>
+      </c>
+      <c r="G33" t="s">
+        <v>739</v>
+      </c>
+      <c r="H33" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" t="s">
+        <v>152</v>
+      </c>
+      <c r="C34" t="s">
+        <v>250</v>
+      </c>
+      <c r="D34" t="s">
+        <v>348</v>
+      </c>
+      <c r="E34" t="s">
+        <v>446</v>
+      </c>
+      <c r="F34" t="s">
+        <v>544</v>
+      </c>
+      <c r="G34" t="s">
+        <v>740</v>
+      </c>
+      <c r="H34" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" t="s">
+        <v>153</v>
+      </c>
+      <c r="C35" t="s">
+        <v>251</v>
+      </c>
+      <c r="D35" t="s">
+        <v>349</v>
+      </c>
+      <c r="E35" t="s">
+        <v>447</v>
+      </c>
+      <c r="F35" t="s">
+        <v>545</v>
+      </c>
+      <c r="G35" t="s">
+        <v>741</v>
+      </c>
+      <c r="H35" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" t="s">
+        <v>154</v>
+      </c>
+      <c r="C36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D36" t="s">
+        <v>350</v>
+      </c>
+      <c r="E36" t="s">
+        <v>448</v>
+      </c>
+      <c r="F36" t="s">
+        <v>546</v>
+      </c>
+      <c r="G36" t="s">
+        <v>742</v>
+      </c>
+      <c r="H36" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" t="s">
+        <v>155</v>
+      </c>
+      <c r="C37" t="s">
+        <v>253</v>
+      </c>
+      <c r="D37" t="s">
+        <v>351</v>
+      </c>
+      <c r="E37" t="s">
+        <v>449</v>
+      </c>
+      <c r="F37" t="s">
+        <v>547</v>
+      </c>
+      <c r="G37" t="s">
+        <v>743</v>
+      </c>
+      <c r="H37" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" t="s">
+        <v>156</v>
+      </c>
+      <c r="C38" t="s">
+        <v>254</v>
+      </c>
+      <c r="D38" t="s">
+        <v>352</v>
+      </c>
+      <c r="E38" t="s">
+        <v>450</v>
+      </c>
+      <c r="F38" t="s">
+        <v>548</v>
+      </c>
+      <c r="G38" t="s">
+        <v>744</v>
+      </c>
+      <c r="H38" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" t="s">
+        <v>157</v>
+      </c>
+      <c r="C39" t="s">
+        <v>255</v>
+      </c>
+      <c r="D39" t="s">
+        <v>353</v>
+      </c>
+      <c r="E39" t="s">
+        <v>451</v>
+      </c>
+      <c r="F39" t="s">
+        <v>549</v>
+      </c>
+      <c r="G39" t="s">
+        <v>745</v>
+      </c>
+      <c r="H39" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" t="s">
+        <v>158</v>
+      </c>
+      <c r="C40" t="s">
+        <v>256</v>
+      </c>
+      <c r="D40" t="s">
+        <v>354</v>
+      </c>
+      <c r="E40" t="s">
+        <v>452</v>
+      </c>
+      <c r="F40" t="s">
+        <v>550</v>
+      </c>
+      <c r="G40" t="s">
+        <v>746</v>
+      </c>
+      <c r="H40" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" t="s">
+        <v>159</v>
+      </c>
+      <c r="C41" t="s">
+        <v>257</v>
+      </c>
+      <c r="D41" t="s">
+        <v>355</v>
+      </c>
+      <c r="E41" t="s">
+        <v>453</v>
+      </c>
+      <c r="F41" t="s">
+        <v>551</v>
+      </c>
+      <c r="G41" t="s">
+        <v>747</v>
+      </c>
+      <c r="H41" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" t="s">
+        <v>160</v>
+      </c>
+      <c r="C42" t="s">
+        <v>258</v>
+      </c>
+      <c r="D42" t="s">
+        <v>356</v>
+      </c>
+      <c r="E42" t="s">
+        <v>454</v>
+      </c>
+      <c r="F42" t="s">
+        <v>552</v>
+      </c>
+      <c r="G42" t="s">
+        <v>748</v>
+      </c>
+      <c r="H42" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" t="s">
+        <v>161</v>
+      </c>
+      <c r="C43" t="s">
+        <v>259</v>
+      </c>
+      <c r="D43" t="s">
+        <v>357</v>
+      </c>
+      <c r="E43" t="s">
+        <v>455</v>
+      </c>
+      <c r="F43" t="s">
+        <v>553</v>
+      </c>
+      <c r="G43" t="s">
+        <v>749</v>
+      </c>
+      <c r="H43" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" t="s">
+        <v>162</v>
+      </c>
+      <c r="C44" t="s">
+        <v>260</v>
+      </c>
+      <c r="D44" t="s">
+        <v>358</v>
+      </c>
+      <c r="E44" t="s">
+        <v>456</v>
+      </c>
+      <c r="F44" t="s">
+        <v>554</v>
+      </c>
+      <c r="G44" t="s">
+        <v>750</v>
+      </c>
+      <c r="H44" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" t="s">
+        <v>163</v>
+      </c>
+      <c r="C45" t="s">
+        <v>261</v>
+      </c>
+      <c r="D45" t="s">
+        <v>359</v>
+      </c>
+      <c r="E45" t="s">
+        <v>457</v>
+      </c>
+      <c r="F45" t="s">
+        <v>555</v>
+      </c>
+      <c r="G45" t="s">
+        <v>751</v>
+      </c>
+      <c r="H45" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" t="s">
+        <v>164</v>
+      </c>
+      <c r="C46" t="s">
+        <v>262</v>
+      </c>
+      <c r="D46" t="s">
+        <v>360</v>
+      </c>
+      <c r="E46" t="s">
+        <v>458</v>
+      </c>
+      <c r="F46" t="s">
+        <v>556</v>
+      </c>
+      <c r="G46" t="s">
+        <v>752</v>
+      </c>
+      <c r="H46" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" t="s">
+        <v>165</v>
+      </c>
+      <c r="C47" t="s">
+        <v>263</v>
+      </c>
+      <c r="D47" t="s">
+        <v>361</v>
+      </c>
+      <c r="E47" t="s">
+        <v>459</v>
+      </c>
+      <c r="F47" t="s">
+        <v>557</v>
+      </c>
+      <c r="G47" t="s">
+        <v>753</v>
+      </c>
+      <c r="H47" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" t="s">
+        <v>166</v>
+      </c>
+      <c r="C48" t="s">
+        <v>264</v>
+      </c>
+      <c r="D48" t="s">
+        <v>362</v>
+      </c>
+      <c r="E48" t="s">
+        <v>460</v>
+      </c>
+      <c r="F48" t="s">
+        <v>558</v>
+      </c>
+      <c r="G48" t="s">
+        <v>754</v>
+      </c>
+      <c r="H48" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" t="s">
+        <v>167</v>
+      </c>
+      <c r="C49" t="s">
+        <v>265</v>
+      </c>
+      <c r="D49" t="s">
+        <v>363</v>
+      </c>
+      <c r="E49" t="s">
+        <v>461</v>
+      </c>
+      <c r="F49" t="s">
+        <v>559</v>
+      </c>
+      <c r="G49" t="s">
+        <v>755</v>
+      </c>
+      <c r="H49" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" t="s">
+        <v>168</v>
+      </c>
+      <c r="C50" t="s">
+        <v>266</v>
+      </c>
+      <c r="D50" t="s">
+        <v>364</v>
+      </c>
+      <c r="E50" t="s">
+        <v>462</v>
+      </c>
+      <c r="F50" t="s">
+        <v>560</v>
+      </c>
+      <c r="G50" t="s">
+        <v>756</v>
+      </c>
+      <c r="H50" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B51" t="s">
+        <v>169</v>
+      </c>
+      <c r="C51" t="s">
+        <v>267</v>
+      </c>
+      <c r="D51" t="s">
+        <v>365</v>
+      </c>
+      <c r="E51" t="s">
+        <v>463</v>
+      </c>
+      <c r="F51" t="s">
+        <v>561</v>
+      </c>
+      <c r="G51" t="s">
+        <v>757</v>
+      </c>
+      <c r="H51" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" t="s">
+        <v>170</v>
+      </c>
+      <c r="C52" t="s">
+        <v>268</v>
+      </c>
+      <c r="D52" t="s">
+        <v>366</v>
+      </c>
+      <c r="E52" t="s">
+        <v>464</v>
+      </c>
+      <c r="F52" t="s">
+        <v>562</v>
+      </c>
+      <c r="G52" t="s">
+        <v>758</v>
+      </c>
+      <c r="H52" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" t="s">
+        <v>171</v>
+      </c>
+      <c r="C53" t="s">
+        <v>269</v>
+      </c>
+      <c r="D53" t="s">
+        <v>367</v>
+      </c>
+      <c r="E53" t="s">
+        <v>465</v>
+      </c>
+      <c r="F53" t="s">
+        <v>563</v>
+      </c>
+      <c r="G53" t="s">
+        <v>759</v>
+      </c>
+      <c r="H53" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" t="s">
+        <v>172</v>
+      </c>
+      <c r="C54" t="s">
+        <v>270</v>
+      </c>
+      <c r="D54" t="s">
+        <v>368</v>
+      </c>
+      <c r="E54" t="s">
+        <v>466</v>
+      </c>
+      <c r="F54" t="s">
+        <v>564</v>
+      </c>
+      <c r="G54" t="s">
+        <v>760</v>
+      </c>
+      <c r="H54" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55" t="s">
+        <v>173</v>
+      </c>
+      <c r="C55" t="s">
+        <v>271</v>
+      </c>
+      <c r="D55" t="s">
+        <v>369</v>
+      </c>
+      <c r="E55" t="s">
+        <v>467</v>
+      </c>
+      <c r="F55" t="s">
+        <v>565</v>
+      </c>
+      <c r="G55" t="s">
+        <v>761</v>
+      </c>
+      <c r="H55" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" t="s">
+        <v>174</v>
+      </c>
+      <c r="C56" t="s">
+        <v>272</v>
+      </c>
+      <c r="D56" t="s">
+        <v>370</v>
+      </c>
+      <c r="E56" t="s">
+        <v>468</v>
+      </c>
+      <c r="F56" t="s">
+        <v>566</v>
+      </c>
+      <c r="G56" t="s">
+        <v>762</v>
+      </c>
+      <c r="H56" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B57" t="s">
+        <v>175</v>
+      </c>
+      <c r="C57" t="s">
+        <v>273</v>
+      </c>
+      <c r="D57" t="s">
+        <v>371</v>
+      </c>
+      <c r="E57" t="s">
+        <v>469</v>
+      </c>
+      <c r="F57" t="s">
+        <v>567</v>
+      </c>
+      <c r="G57" t="s">
+        <v>763</v>
+      </c>
+      <c r="H57" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B58" t="s">
+        <v>176</v>
+      </c>
+      <c r="C58" t="s">
+        <v>274</v>
+      </c>
+      <c r="D58" t="s">
+        <v>372</v>
+      </c>
+      <c r="E58" t="s">
+        <v>470</v>
+      </c>
+      <c r="F58" t="s">
+        <v>568</v>
+      </c>
+      <c r="G58" t="s">
+        <v>764</v>
+      </c>
+      <c r="H58" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B59" t="s">
+        <v>177</v>
+      </c>
+      <c r="C59" t="s">
+        <v>275</v>
+      </c>
+      <c r="D59" t="s">
+        <v>373</v>
+      </c>
+      <c r="E59" t="s">
+        <v>471</v>
+      </c>
+      <c r="F59" t="s">
+        <v>569</v>
+      </c>
+      <c r="G59" t="s">
+        <v>765</v>
+      </c>
+      <c r="H59" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B60" t="s">
+        <v>178</v>
+      </c>
+      <c r="C60" t="s">
+        <v>276</v>
+      </c>
+      <c r="D60" t="s">
+        <v>374</v>
+      </c>
+      <c r="E60" t="s">
+        <v>472</v>
+      </c>
+      <c r="F60" t="s">
+        <v>570</v>
+      </c>
+      <c r="G60" t="s">
+        <v>766</v>
+      </c>
+      <c r="H60" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B61" t="s">
+        <v>179</v>
+      </c>
+      <c r="C61" t="s">
+        <v>277</v>
+      </c>
+      <c r="D61" t="s">
+        <v>375</v>
+      </c>
+      <c r="E61" t="s">
+        <v>473</v>
+      </c>
+      <c r="F61" t="s">
+        <v>571</v>
+      </c>
+      <c r="G61" t="s">
+        <v>767</v>
+      </c>
+      <c r="H61" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B62" t="s">
+        <v>180</v>
+      </c>
+      <c r="C62" t="s">
+        <v>278</v>
+      </c>
+      <c r="D62" t="s">
+        <v>376</v>
+      </c>
+      <c r="E62" t="s">
+        <v>474</v>
+      </c>
+      <c r="F62" t="s">
+        <v>572</v>
+      </c>
+      <c r="G62" t="s">
+        <v>768</v>
+      </c>
+      <c r="H62" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B63" t="s">
+        <v>181</v>
+      </c>
+      <c r="C63" t="s">
+        <v>279</v>
+      </c>
+      <c r="D63" t="s">
+        <v>377</v>
+      </c>
+      <c r="E63" t="s">
+        <v>475</v>
+      </c>
+      <c r="F63" t="s">
+        <v>573</v>
+      </c>
+      <c r="G63" t="s">
+        <v>769</v>
+      </c>
+      <c r="H63" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B64" t="s">
+        <v>182</v>
+      </c>
+      <c r="C64" t="s">
+        <v>280</v>
+      </c>
+      <c r="D64" t="s">
+        <v>378</v>
+      </c>
+      <c r="E64" t="s">
+        <v>476</v>
+      </c>
+      <c r="F64" t="s">
+        <v>574</v>
+      </c>
+      <c r="G64" t="s">
+        <v>770</v>
+      </c>
+      <c r="H64" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B65" t="s">
+        <v>183</v>
+      </c>
+      <c r="C65" t="s">
+        <v>281</v>
+      </c>
+      <c r="D65" t="s">
+        <v>379</v>
+      </c>
+      <c r="E65" t="s">
+        <v>477</v>
+      </c>
+      <c r="F65" t="s">
+        <v>575</v>
+      </c>
+      <c r="G65" t="s">
+        <v>771</v>
+      </c>
+      <c r="H65" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B66" t="s">
+        <v>184</v>
+      </c>
+      <c r="C66" t="s">
+        <v>282</v>
+      </c>
+      <c r="D66" t="s">
+        <v>380</v>
+      </c>
+      <c r="E66" t="s">
+        <v>478</v>
+      </c>
+      <c r="F66" t="s">
+        <v>576</v>
+      </c>
+      <c r="G66" t="s">
+        <v>772</v>
+      </c>
+      <c r="H66" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B67" t="s">
+        <v>185</v>
+      </c>
+      <c r="C67" t="s">
+        <v>283</v>
+      </c>
+      <c r="D67" t="s">
+        <v>381</v>
+      </c>
+      <c r="E67" t="s">
+        <v>479</v>
+      </c>
+      <c r="F67" t="s">
+        <v>577</v>
+      </c>
+      <c r="G67" t="s">
+        <v>773</v>
+      </c>
+      <c r="H67" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B68" t="s">
+        <v>186</v>
+      </c>
+      <c r="C68" t="s">
+        <v>284</v>
+      </c>
+      <c r="D68" t="s">
+        <v>382</v>
+      </c>
+      <c r="E68" t="s">
+        <v>480</v>
+      </c>
+      <c r="F68" t="s">
+        <v>578</v>
+      </c>
+      <c r="G68" t="s">
+        <v>774</v>
+      </c>
+      <c r="H68" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B69" t="s">
+        <v>187</v>
+      </c>
+      <c r="C69" t="s">
+        <v>285</v>
+      </c>
+      <c r="D69" t="s">
+        <v>383</v>
+      </c>
+      <c r="E69" t="s">
+        <v>481</v>
+      </c>
+      <c r="F69" t="s">
+        <v>579</v>
+      </c>
+      <c r="G69" t="s">
+        <v>775</v>
+      </c>
+      <c r="H69" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B70" t="s">
+        <v>188</v>
+      </c>
+      <c r="C70" t="s">
+        <v>286</v>
+      </c>
+      <c r="D70" t="s">
+        <v>384</v>
+      </c>
+      <c r="E70" t="s">
+        <v>482</v>
+      </c>
+      <c r="F70" t="s">
+        <v>580</v>
+      </c>
+      <c r="G70" t="s">
+        <v>776</v>
+      </c>
+      <c r="H70" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B71" t="s">
+        <v>189</v>
+      </c>
+      <c r="C71" t="s">
+        <v>287</v>
+      </c>
+      <c r="D71" t="s">
+        <v>385</v>
+      </c>
+      <c r="E71" t="s">
+        <v>483</v>
+      </c>
+      <c r="F71" t="s">
+        <v>581</v>
+      </c>
+      <c r="G71" t="s">
+        <v>777</v>
+      </c>
+      <c r="H71" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B72" t="s">
+        <v>190</v>
+      </c>
+      <c r="C72" t="s">
+        <v>288</v>
+      </c>
+      <c r="D72" t="s">
+        <v>386</v>
+      </c>
+      <c r="E72" t="s">
+        <v>484</v>
+      </c>
+      <c r="F72" t="s">
+        <v>582</v>
+      </c>
+      <c r="G72" t="s">
+        <v>778</v>
+      </c>
+      <c r="H72" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B73" t="s">
+        <v>191</v>
+      </c>
+      <c r="C73" t="s">
+        <v>289</v>
+      </c>
+      <c r="D73" t="s">
+        <v>387</v>
+      </c>
+      <c r="E73" t="s">
+        <v>485</v>
+      </c>
+      <c r="F73" t="s">
+        <v>583</v>
+      </c>
+      <c r="G73" t="s">
+        <v>779</v>
+      </c>
+      <c r="H73" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B74" t="s">
+        <v>192</v>
+      </c>
+      <c r="C74" t="s">
+        <v>290</v>
+      </c>
+      <c r="D74" t="s">
+        <v>388</v>
+      </c>
+      <c r="E74" t="s">
+        <v>486</v>
+      </c>
+      <c r="F74" t="s">
+        <v>584</v>
+      </c>
+      <c r="G74" t="s">
+        <v>780</v>
+      </c>
+      <c r="H74" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B75" t="s">
+        <v>193</v>
+      </c>
+      <c r="C75" t="s">
+        <v>291</v>
+      </c>
+      <c r="D75" t="s">
+        <v>389</v>
+      </c>
+      <c r="E75" t="s">
+        <v>487</v>
+      </c>
+      <c r="F75" t="s">
+        <v>585</v>
+      </c>
+      <c r="G75" t="s">
+        <v>781</v>
+      </c>
+      <c r="H75" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B76" t="s">
+        <v>194</v>
+      </c>
+      <c r="C76" t="s">
+        <v>292</v>
+      </c>
+      <c r="D76" t="s">
+        <v>390</v>
+      </c>
+      <c r="E76" t="s">
+        <v>488</v>
+      </c>
+      <c r="F76" t="s">
+        <v>586</v>
+      </c>
+      <c r="G76" t="s">
+        <v>782</v>
+      </c>
+      <c r="H76" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B77" t="s">
+        <v>195</v>
+      </c>
+      <c r="C77" t="s">
+        <v>293</v>
+      </c>
+      <c r="D77" t="s">
+        <v>391</v>
+      </c>
+      <c r="E77" t="s">
+        <v>489</v>
+      </c>
+      <c r="F77" t="s">
+        <v>587</v>
+      </c>
+      <c r="G77" t="s">
+        <v>783</v>
+      </c>
+      <c r="H77" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B78" t="s">
+        <v>196</v>
+      </c>
+      <c r="C78" t="s">
+        <v>294</v>
+      </c>
+      <c r="D78" t="s">
+        <v>392</v>
+      </c>
+      <c r="E78" t="s">
+        <v>490</v>
+      </c>
+      <c r="F78" t="s">
+        <v>588</v>
+      </c>
+      <c r="G78" t="s">
+        <v>784</v>
+      </c>
+      <c r="H78" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B79" t="s">
+        <v>197</v>
+      </c>
+      <c r="C79" t="s">
+        <v>295</v>
+      </c>
+      <c r="D79" t="s">
+        <v>393</v>
+      </c>
+      <c r="E79" t="s">
+        <v>491</v>
+      </c>
+      <c r="F79" t="s">
+        <v>589</v>
+      </c>
+      <c r="G79" t="s">
+        <v>785</v>
+      </c>
+      <c r="H79" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B80" t="s">
+        <v>198</v>
+      </c>
+      <c r="C80" t="s">
+        <v>296</v>
+      </c>
+      <c r="D80" t="s">
+        <v>394</v>
+      </c>
+      <c r="E80" t="s">
+        <v>492</v>
+      </c>
+      <c r="F80" t="s">
+        <v>590</v>
+      </c>
+      <c r="G80" t="s">
+        <v>786</v>
+      </c>
+      <c r="H80" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B81" t="s">
+        <v>199</v>
+      </c>
+      <c r="C81" t="s">
+        <v>297</v>
+      </c>
+      <c r="D81" t="s">
+        <v>395</v>
+      </c>
+      <c r="E81" t="s">
+        <v>493</v>
+      </c>
+      <c r="F81" t="s">
+        <v>591</v>
+      </c>
+      <c r="G81" t="s">
+        <v>787</v>
+      </c>
+      <c r="H81" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B82" t="s">
+        <v>200</v>
+      </c>
+      <c r="C82" t="s">
+        <v>298</v>
+      </c>
+      <c r="D82" t="s">
+        <v>396</v>
+      </c>
+      <c r="E82" t="s">
+        <v>494</v>
+      </c>
+      <c r="F82" t="s">
+        <v>592</v>
+      </c>
+      <c r="G82" t="s">
+        <v>788</v>
+      </c>
+      <c r="H82" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B83" t="s">
+        <v>201</v>
+      </c>
+      <c r="C83" t="s">
+        <v>299</v>
+      </c>
+      <c r="D83" t="s">
+        <v>397</v>
+      </c>
+      <c r="E83" t="s">
+        <v>495</v>
+      </c>
+      <c r="F83" t="s">
+        <v>593</v>
+      </c>
+      <c r="G83" t="s">
+        <v>789</v>
+      </c>
+      <c r="H83" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B84" t="s">
+        <v>202</v>
+      </c>
+      <c r="C84" t="s">
+        <v>300</v>
+      </c>
+      <c r="D84" t="s">
+        <v>398</v>
+      </c>
+      <c r="E84" t="s">
+        <v>496</v>
+      </c>
+      <c r="F84" t="s">
+        <v>594</v>
+      </c>
+      <c r="G84" t="s">
+        <v>790</v>
+      </c>
+      <c r="H84" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B85" t="s">
+        <v>203</v>
+      </c>
+      <c r="C85" t="s">
+        <v>301</v>
+      </c>
+      <c r="D85" t="s">
+        <v>399</v>
+      </c>
+      <c r="E85" t="s">
+        <v>497</v>
+      </c>
+      <c r="F85" t="s">
+        <v>595</v>
+      </c>
+      <c r="G85" t="s">
+        <v>791</v>
+      </c>
+      <c r="H85" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B86" t="s">
+        <v>204</v>
+      </c>
+      <c r="C86" t="s">
+        <v>302</v>
+      </c>
+      <c r="D86" t="s">
+        <v>400</v>
+      </c>
+      <c r="E86" t="s">
+        <v>498</v>
+      </c>
+      <c r="F86" t="s">
+        <v>596</v>
+      </c>
+      <c r="G86" t="s">
+        <v>792</v>
+      </c>
+      <c r="H86" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B87" t="s">
+        <v>205</v>
+      </c>
+      <c r="C87" t="s">
+        <v>303</v>
+      </c>
+      <c r="D87" t="s">
+        <v>401</v>
+      </c>
+      <c r="E87" t="s">
+        <v>499</v>
+      </c>
+      <c r="F87" t="s">
+        <v>597</v>
+      </c>
+      <c r="G87" t="s">
+        <v>793</v>
+      </c>
+      <c r="H87" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B88" t="s">
+        <v>206</v>
+      </c>
+      <c r="C88" t="s">
+        <v>304</v>
+      </c>
+      <c r="D88" t="s">
+        <v>402</v>
+      </c>
+      <c r="E88" t="s">
+        <v>500</v>
+      </c>
+      <c r="F88" t="s">
+        <v>598</v>
+      </c>
+      <c r="G88" t="s">
+        <v>794</v>
+      </c>
+      <c r="H88" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B89" t="s">
+        <v>207</v>
+      </c>
+      <c r="C89" t="s">
+        <v>305</v>
+      </c>
+      <c r="D89" t="s">
+        <v>403</v>
+      </c>
+      <c r="E89" t="s">
+        <v>501</v>
+      </c>
+      <c r="F89" t="s">
+        <v>599</v>
+      </c>
+      <c r="G89" t="s">
+        <v>795</v>
+      </c>
+      <c r="H89" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B90" t="s">
+        <v>208</v>
+      </c>
+      <c r="C90" t="s">
+        <v>306</v>
+      </c>
+      <c r="D90" t="s">
+        <v>404</v>
+      </c>
+      <c r="E90" t="s">
+        <v>502</v>
+      </c>
+      <c r="F90" t="s">
+        <v>600</v>
+      </c>
+      <c r="G90" t="s">
+        <v>796</v>
+      </c>
+      <c r="H90" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B91" t="s">
+        <v>209</v>
+      </c>
+      <c r="C91" t="s">
+        <v>307</v>
+      </c>
+      <c r="D91" t="s">
+        <v>405</v>
+      </c>
+      <c r="E91" t="s">
+        <v>503</v>
+      </c>
+      <c r="F91" t="s">
+        <v>601</v>
+      </c>
+      <c r="G91" t="s">
+        <v>797</v>
+      </c>
+      <c r="H91" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B92" t="s">
+        <v>210</v>
+      </c>
+      <c r="C92" t="s">
+        <v>308</v>
+      </c>
+      <c r="D92" t="s">
+        <v>406</v>
+      </c>
+      <c r="E92" t="s">
+        <v>504</v>
+      </c>
+      <c r="F92" t="s">
+        <v>602</v>
+      </c>
+      <c r="G92" t="s">
+        <v>798</v>
+      </c>
+      <c r="H92" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B93" t="s">
+        <v>211</v>
+      </c>
+      <c r="C93" t="s">
+        <v>309</v>
+      </c>
+      <c r="D93" t="s">
+        <v>407</v>
+      </c>
+      <c r="E93" t="s">
+        <v>505</v>
+      </c>
+      <c r="F93" t="s">
+        <v>603</v>
+      </c>
+      <c r="G93" t="s">
+        <v>799</v>
+      </c>
+      <c r="H93" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B94" t="s">
+        <v>212</v>
+      </c>
+      <c r="C94" t="s">
+        <v>310</v>
+      </c>
+      <c r="D94" t="s">
+        <v>408</v>
+      </c>
+      <c r="E94" t="s">
+        <v>506</v>
+      </c>
+      <c r="F94" t="s">
+        <v>604</v>
+      </c>
+      <c r="G94" t="s">
+        <v>800</v>
+      </c>
+      <c r="H94" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B95" t="s">
+        <v>213</v>
+      </c>
+      <c r="C95" t="s">
+        <v>311</v>
+      </c>
+      <c r="D95" t="s">
+        <v>409</v>
+      </c>
+      <c r="E95" t="s">
+        <v>507</v>
+      </c>
+      <c r="F95" t="s">
+        <v>605</v>
+      </c>
+      <c r="G95" t="s">
+        <v>801</v>
+      </c>
+      <c r="H95" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B96" t="s">
+        <v>214</v>
+      </c>
+      <c r="C96" t="s">
+        <v>312</v>
+      </c>
+      <c r="D96" t="s">
+        <v>410</v>
+      </c>
+      <c r="E96" t="s">
+        <v>508</v>
+      </c>
+      <c r="F96" t="s">
+        <v>606</v>
+      </c>
+      <c r="G96" t="s">
+        <v>802</v>
+      </c>
+      <c r="H96" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B97" t="s">
+        <v>215</v>
+      </c>
+      <c r="C97" t="s">
+        <v>313</v>
+      </c>
+      <c r="D97" t="s">
+        <v>411</v>
+      </c>
+      <c r="E97" t="s">
+        <v>509</v>
+      </c>
+      <c r="F97" t="s">
+        <v>607</v>
+      </c>
+      <c r="G97" t="s">
+        <v>803</v>
+      </c>
+      <c r="H97" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B98" t="s">
+        <v>216</v>
+      </c>
+      <c r="C98" t="s">
+        <v>314</v>
+      </c>
+      <c r="D98" t="s">
+        <v>412</v>
+      </c>
+      <c r="E98" t="s">
+        <v>510</v>
+      </c>
+      <c r="F98" t="s">
+        <v>608</v>
+      </c>
+      <c r="G98" t="s">
+        <v>804</v>
+      </c>
+      <c r="H98" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B99" t="s">
+        <v>217</v>
+      </c>
+      <c r="C99" t="s">
+        <v>315</v>
+      </c>
+      <c r="D99" t="s">
+        <v>413</v>
+      </c>
+      <c r="E99" t="s">
+        <v>511</v>
+      </c>
+      <c r="F99" t="s">
+        <v>609</v>
+      </c>
+      <c r="G99" t="s">
+        <v>805</v>
+      </c>
+      <c r="H99" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B100" t="s">
+        <v>218</v>
+      </c>
+      <c r="C100" t="s">
+        <v>316</v>
+      </c>
+      <c r="D100" t="s">
+        <v>414</v>
+      </c>
+      <c r="E100" t="s">
+        <v>512</v>
+      </c>
+      <c r="F100" t="s">
+        <v>610</v>
+      </c>
+      <c r="G100" t="s">
+        <v>806</v>
+      </c>
+      <c r="H100" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B101" t="s">
+        <v>219</v>
+      </c>
+      <c r="C101" t="s">
+        <v>317</v>
+      </c>
+      <c r="D101" t="s">
+        <v>415</v>
+      </c>
+      <c r="E101" t="s">
+        <v>513</v>
+      </c>
+      <c r="F101" t="s">
+        <v>611</v>
+      </c>
+      <c r="G101" t="s">
+        <v>807</v>
+      </c>
+      <c r="H101" t="s">
+        <v>709</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
